--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam17-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.47042033333333</v>
+        <v>9.388106333333333</v>
       </c>
       <c r="H2">
-        <v>97.411261</v>
+        <v>28.164319</v>
       </c>
       <c r="I2">
-        <v>0.5240295449207956</v>
+        <v>0.2414596449149976</v>
       </c>
       <c r="J2">
-        <v>0.5240295449207955</v>
+        <v>0.2414596449149975</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>3800.486158341314</v>
+        <v>723.7246422393144</v>
       </c>
       <c r="R2">
-        <v>34204.37542507183</v>
+        <v>6513.52178015383</v>
       </c>
       <c r="S2">
-        <v>0.1700667482275122</v>
+        <v>0.05804247204788295</v>
       </c>
       <c r="T2">
-        <v>0.1700667482275121</v>
+        <v>0.05804247204788294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.47042033333333</v>
+        <v>9.388106333333333</v>
       </c>
       <c r="H3">
-        <v>97.411261</v>
+        <v>28.164319</v>
       </c>
       <c r="I3">
-        <v>0.5240295449207956</v>
+        <v>0.2414596449149976</v>
       </c>
       <c r="J3">
-        <v>0.5240295449207955</v>
+        <v>0.2414596449149975</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>3298.346509689025</v>
+        <v>953.6441918293031</v>
       </c>
       <c r="R3">
-        <v>29685.11858720123</v>
+        <v>8582.797726463728</v>
       </c>
       <c r="S3">
-        <v>0.1475966605480794</v>
+        <v>0.07648194232631231</v>
       </c>
       <c r="T3">
-        <v>0.1475966605480793</v>
+        <v>0.07648194232631228</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.47042033333333</v>
+        <v>9.388106333333333</v>
       </c>
       <c r="H4">
-        <v>97.411261</v>
+        <v>28.164319</v>
       </c>
       <c r="I4">
-        <v>0.5240295449207956</v>
+        <v>0.2414596449149976</v>
       </c>
       <c r="J4">
-        <v>0.5240295449207955</v>
+        <v>0.2414596449149975</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>4611.669548247116</v>
+        <v>1333.362600443266</v>
       </c>
       <c r="R4">
-        <v>41505.02593422405</v>
+        <v>12000.26340398939</v>
       </c>
       <c r="S4">
-        <v>0.206366136145204</v>
+        <v>0.1069352305408023</v>
       </c>
       <c r="T4">
-        <v>0.206366136145204</v>
+        <v>0.1069352305408023</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>67.31372999999999</v>
       </c>
       <c r="I5">
-        <v>0.3621181261458191</v>
+        <v>0.5770971896641285</v>
       </c>
       <c r="J5">
-        <v>0.362118126145819</v>
+        <v>0.5770971896641284</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>2626.23537058333</v>
+        <v>1729.727786496233</v>
       </c>
       <c r="R5">
-        <v>23636.11833524997</v>
+        <v>15567.5500784661</v>
       </c>
       <c r="S5">
-        <v>0.1175205726180337</v>
+        <v>0.1387235846875523</v>
       </c>
       <c r="T5">
-        <v>0.1175205726180337</v>
+        <v>0.1387235846875523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>67.31372999999999</v>
       </c>
       <c r="I6">
-        <v>0.3621181261458191</v>
+        <v>0.5770971896641285</v>
       </c>
       <c r="J6">
-        <v>0.362118126145819</v>
+        <v>0.5770971896641284</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>2279.243735481973</v>
@@ -818,10 +818,10 @@
         <v>20513.19361933776</v>
       </c>
       <c r="S6">
-        <v>0.101993154128608</v>
+        <v>0.1827945783325689</v>
       </c>
       <c r="T6">
-        <v>0.101993154128608</v>
+        <v>0.1827945783325688</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>67.31372999999999</v>
       </c>
       <c r="I7">
-        <v>0.3621181261458191</v>
+        <v>0.5770971896641285</v>
       </c>
       <c r="J7">
-        <v>0.362118126145819</v>
+        <v>0.5770971896641284</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>3186.784316650293</v>
@@ -880,10 +880,10 @@
         <v>28681.05884985264</v>
       </c>
       <c r="S7">
-        <v>0.1426043993991773</v>
+        <v>0.2555790266440073</v>
       </c>
       <c r="T7">
-        <v>0.1426043993991773</v>
+        <v>0.2555790266440072</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>21.163881</v>
       </c>
       <c r="I8">
-        <v>0.1138523289333856</v>
+        <v>0.181443165420874</v>
       </c>
       <c r="J8">
-        <v>0.1138523289333855</v>
+        <v>0.1814431654208739</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>825.7057343430009</v>
+        <v>543.8378327244633</v>
       </c>
       <c r="R8">
-        <v>7431.351609087009</v>
+        <v>4894.54049452017</v>
       </c>
       <c r="S8">
-        <v>0.03694924369723566</v>
+        <v>0.04361561063724712</v>
       </c>
       <c r="T8">
-        <v>0.03694924369723566</v>
+        <v>0.04361561063724711</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>21.163881</v>
       </c>
       <c r="I9">
-        <v>0.1138523289333856</v>
+        <v>0.181443165420874</v>
       </c>
       <c r="J9">
-        <v>0.1138523289333855</v>
+        <v>0.1814431654208739</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
         <v>716.6092740327414</v>
@@ -1004,10 +1004,10 @@
         <v>6449.483466294672</v>
       </c>
       <c r="S9">
-        <v>0.03206732083918867</v>
+        <v>0.05747182191917855</v>
       </c>
       <c r="T9">
-        <v>0.03206732083918865</v>
+        <v>0.05747182191917853</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>21.163881</v>
       </c>
       <c r="I10">
-        <v>0.1138523289333856</v>
+        <v>0.181443165420874</v>
       </c>
       <c r="J10">
-        <v>0.1138523289333855</v>
+        <v>0.1814431654208739</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
         <v>1001.946022754245</v>
@@ -1066,10 +1066,10 @@
         <v>9017.514204788209</v>
       </c>
       <c r="S10">
-        <v>0.04483576439696122</v>
+        <v>0.08035573286444832</v>
       </c>
       <c r="T10">
-        <v>0.04483576439696121</v>
+        <v>0.0803557328644483</v>
       </c>
     </row>
   </sheetData>
